--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -651,10 +663,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -698,28 +710,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -744,28 +756,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -998,10 +1010,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1045,28 +1057,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1091,28 +1103,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1345,10 +1357,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1392,28 +1404,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1438,28 +1450,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1634,10 +1646,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1681,28 +1693,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1727,28 +1739,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1923,10 +1935,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1970,28 +1982,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2016,28 +2028,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2241,10 +2253,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2288,28 +2300,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2334,28 +2346,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2559,10 +2571,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2606,28 +2618,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2652,28 +2664,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2906,10 +2918,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2953,28 +2965,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2999,28 +3011,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3253,10 +3265,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3300,28 +3312,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3346,28 +3358,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3687,10 +3699,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3734,28 +3746,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3780,28 +3792,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4034,10 +4046,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4081,28 +4093,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4127,28 +4139,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4381,10 +4393,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
+      <c r="J147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4428,28 +4440,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4474,28 +4486,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4670,10 +4682,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
+      <c r="J157" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4717,28 +4729,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4763,28 +4775,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4930,10 +4942,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
+      <c r="J166" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4977,28 +4989,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5023,28 +5035,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5132,10 +5144,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
+      <c r="J173" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5179,28 +5191,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5225,28 +5237,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5305,10 +5317,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
+      <c r="J179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5352,28 +5364,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5398,28 +5410,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5507,10 +5519,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -663,10 +711,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -710,28 +758,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="4">
+      <c r="A20" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -756,28 +804,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="4">
+      <c r="B22" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="C22" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="4">
+      <c r="D22" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="4">
+      <c r="E22" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="4">
+      <c r="F22" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="4">
+      <c r="G22" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="4">
+      <c r="H22" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="4">
+      <c r="I22" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1010,10 +1058,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1057,28 +1105,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="4">
+      <c r="A32" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="4">
+      <c r="C32" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D32" t="s" s="4">
+      <c r="D32" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1103,28 +1151,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="C34" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="4">
+      <c r="D34" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="4">
+      <c r="I34" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1357,10 +1405,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1404,28 +1452,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="4">
+      <c r="A44" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1450,28 +1498,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="D46" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="4">
+      <c r="I46" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1646,10 +1694,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1693,28 +1741,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="4">
+      <c r="A54" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="4">
+      <c r="C54" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="4">
+      <c r="D54" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="4">
+      <c r="G54" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="4">
+      <c r="H54" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1739,28 +1787,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="C56" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="4">
+      <c r="D56" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="4">
+      <c r="I56" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1935,10 +1983,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="J62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K62" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1982,28 +2030,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="4">
+      <c r="A64" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="4">
+      <c r="B64" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="C64" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="4">
+      <c r="D64" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="4">
+      <c r="E64" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="4">
+      <c r="F64" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="4">
+      <c r="G64" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="4">
+      <c r="H64" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2028,28 +2076,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="4">
+      <c r="C66" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="4">
+      <c r="D66" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="4">
+      <c r="G66" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="4">
+      <c r="H66" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="4">
+      <c r="I66" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2253,10 +2301,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="K73" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2300,28 +2348,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="4">
+      <c r="A75" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C75" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="4">
+      <c r="D75" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="4">
+      <c r="G75" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="4">
+      <c r="H75" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2346,28 +2394,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="4">
+      <c r="B77" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="4">
+      <c r="C77" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="4">
+      <c r="D77" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="4">
+      <c r="G77" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="4">
+      <c r="H77" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="4">
+      <c r="I77" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2571,10 +2619,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="J84" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="K84" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2618,28 +2666,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="4">
+      <c r="A86" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="4">
+      <c r="C86" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="4">
+      <c r="D86" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2664,28 +2712,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="4">
+      <c r="C88" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="4">
+      <c r="D88" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="4">
+      <c r="G88" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="4">
+      <c r="I88" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2918,10 +2966,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K96" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2965,28 +3013,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="4">
+      <c r="A98" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3011,28 +3059,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="4">
+      <c r="C100" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="4">
+      <c r="D100" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="4">
+      <c r="E100" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="4">
+      <c r="F100" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="4">
+      <c r="G100" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="4">
+      <c r="H100" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="4">
+      <c r="I100" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3265,10 +3313,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="4" t="s">
+      <c r="J108" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="4" t="s">
+      <c r="K108" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3312,28 +3360,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="4">
+      <c r="A110" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C110" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="4">
+      <c r="D110" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3358,28 +3406,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="4">
+      <c r="C112" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="4">
+      <c r="D112" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="4">
+      <c r="E112" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="4">
+      <c r="F112" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="4">
+      <c r="G112" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="4">
+      <c r="H112" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="4">
+      <c r="I112" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3699,10 +3747,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="4" t="s">
+      <c r="J123" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="4" t="s">
+      <c r="K123" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3746,28 +3794,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="4">
+      <c r="A125" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="4">
+      <c r="C125" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="4">
+      <c r="D125" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="4">
+      <c r="E125" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="4">
+      <c r="F125" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="4">
+      <c r="G125" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="4">
+      <c r="H125" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3792,28 +3840,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="4">
+      <c r="C127" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="4">
+      <c r="D127" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="4">
+      <c r="E127" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="4">
+      <c r="F127" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="4">
+      <c r="G127" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="4">
+      <c r="H127" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="4">
+      <c r="I127" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4046,10 +4094,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="4" t="s">
+      <c r="J135" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="4" t="s">
+      <c r="K135" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4093,28 +4141,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="4">
+      <c r="A137" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="4">
+      <c r="B137" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="4">
+      <c r="C137" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="4">
+      <c r="D137" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="4">
+      <c r="E137" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="4">
+      <c r="F137" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="4">
+      <c r="G137" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="4">
+      <c r="H137" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4139,28 +4187,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="4">
+      <c r="B139" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="4">
+      <c r="C139" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="4">
+      <c r="D139" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="4">
+      <c r="E139" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="4">
+      <c r="F139" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="4">
+      <c r="G139" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="4">
+      <c r="H139" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="4">
+      <c r="I139" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4393,10 +4441,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="4" t="s">
+      <c r="J147" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="4" t="s">
+      <c r="K147" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4440,28 +4488,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="4">
+      <c r="A149" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="4">
+      <c r="C149" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D149" t="s" s="4">
+      <c r="D149" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="4">
+      <c r="E149" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="4">
+      <c r="F149" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="4">
+      <c r="G149" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="4">
+      <c r="H149" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4486,28 +4534,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="4">
+      <c r="B151" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="4">
+      <c r="C151" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="4">
+      <c r="D151" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="4">
+      <c r="E151" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="4">
+      <c r="F151" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="4">
+      <c r="G151" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="4">
+      <c r="H151" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="4">
+      <c r="I151" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4682,10 +4730,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="4" t="s">
+      <c r="J157" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="4" t="s">
+      <c r="K157" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4729,28 +4777,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="4">
+      <c r="A159" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="4">
+      <c r="B159" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="4">
+      <c r="C159" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="4">
+      <c r="D159" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="4">
+      <c r="E159" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="4">
+      <c r="F159" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="4">
+      <c r="G159" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="4">
+      <c r="H159" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4775,28 +4823,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="4">
+      <c r="B161" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="4">
+      <c r="C161" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="4">
+      <c r="D161" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="4">
+      <c r="E161" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="4">
+      <c r="F161" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="4">
+      <c r="G161" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="4">
+      <c r="H161" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="4">
+      <c r="I161" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4942,10 +4990,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="4" t="s">
+      <c r="J166" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="4" t="s">
+      <c r="K166" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4989,28 +5037,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="4">
+      <c r="A168" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="4">
+      <c r="C168" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="4">
+      <c r="D168" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5035,28 +5083,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="4">
+      <c r="I170" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5144,10 +5192,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="4" t="s">
+      <c r="J173" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K173" s="4" t="s">
+      <c r="K173" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5191,28 +5239,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="4">
+      <c r="A175" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="4">
+      <c r="B175" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="4">
+      <c r="C175" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D175" t="s" s="4">
+      <c r="D175" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="4">
+      <c r="E175" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="4">
+      <c r="F175" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="4">
+      <c r="G175" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="4">
+      <c r="H175" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5237,28 +5285,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="4">
+      <c r="B177" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="4">
+      <c r="C177" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="4">
+      <c r="D177" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="4">
+      <c r="E177" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="4">
+      <c r="F177" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="4">
+      <c r="G177" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="4">
+      <c r="H177" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="4">
+      <c r="I177" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5317,10 +5365,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="4" t="s">
+      <c r="J179" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="4" t="s">
+      <c r="K179" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5364,28 +5412,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="4">
+      <c r="A181" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="4">
+      <c r="B181" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="4">
+      <c r="C181" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="4">
+      <c r="D181" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="4">
+      <c r="E181" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="4">
+      <c r="F181" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="4">
+      <c r="G181" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="4">
+      <c r="H181" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5410,28 +5458,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="4">
+      <c r="C183" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="4">
+      <c r="D183" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="4">
+      <c r="G183" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="4">
+      <c r="H183" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="4">
+      <c r="I183" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5519,10 +5567,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="4" t="s">
+      <c r="J186" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="4" t="s">
+      <c r="K186" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -711,10 +729,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -758,28 +776,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="12">
+      <c r="A20" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -804,28 +822,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="12">
+      <c r="B22" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="12">
+      <c r="C22" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="12">
+      <c r="D22" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="12">
+      <c r="E22" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="12">
+      <c r="F22" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="12">
+      <c r="G22" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="12">
+      <c r="H22" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="12">
+      <c r="I22" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1058,10 +1076,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1105,28 +1123,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="12">
+      <c r="A32" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="12">
+      <c r="C32" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D32" t="s" s="12">
+      <c r="D32" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1151,28 +1169,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="12">
+      <c r="C34" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="D34" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="12">
+      <c r="I34" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1405,10 +1423,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1452,28 +1470,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="12">
+      <c r="A44" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="12">
+      <c r="C44" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="12">
+      <c r="D44" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1498,28 +1516,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="12">
+      <c r="C46" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="D46" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="12">
+      <c r="I46" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1694,10 +1712,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="12" t="s">
+      <c r="K52" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1741,28 +1759,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="12">
+      <c r="A54" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="12">
+      <c r="B54" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="12">
+      <c r="C54" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="12">
+      <c r="D54" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="12">
+      <c r="E54" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="12">
+      <c r="F54" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="12">
+      <c r="G54" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="12">
+      <c r="H54" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1787,28 +1805,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="12">
+      <c r="C56" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="12">
+      <c r="D56" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="12">
+      <c r="I56" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1983,10 +2001,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="12" t="s">
+      <c r="J62" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="12" t="s">
+      <c r="K62" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -2030,28 +2048,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="12">
+      <c r="A64" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="12">
+      <c r="B64" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="12">
+      <c r="C64" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="12">
+      <c r="D64" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="12">
+      <c r="E64" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="12">
+      <c r="F64" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="12">
+      <c r="G64" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="12">
+      <c r="H64" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2076,28 +2094,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="12">
+      <c r="C66" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="12">
+      <c r="D66" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="12">
+      <c r="I66" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2301,10 +2319,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="12" t="s">
+      <c r="J73" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="12" t="s">
+      <c r="K73" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2348,28 +2366,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="12">
+      <c r="A75" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="12">
+      <c r="C75" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="12">
+      <c r="D75" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="12">
+      <c r="E75" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="12">
+      <c r="F75" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2394,28 +2412,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="12">
+      <c r="B77" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="12">
+      <c r="C77" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="12">
+      <c r="D77" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="12">
+      <c r="E77" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="12">
+      <c r="F77" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="12">
+      <c r="G77" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="12">
+      <c r="H77" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="12">
+      <c r="I77" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2619,10 +2637,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="12" t="s">
+      <c r="J84" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="12" t="s">
+      <c r="K84" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2666,28 +2684,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="12">
+      <c r="A86" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="12">
+      <c r="C86" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D86" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2712,28 +2730,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="12">
+      <c r="C88" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="12">
+      <c r="D88" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="12">
+      <c r="F88" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="12">
+      <c r="G88" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="12">
+      <c r="I88" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2966,10 +2984,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="J96" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="12" t="s">
+      <c r="K96" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -3013,28 +3031,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="12">
+      <c r="A98" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3059,28 +3077,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="12">
+      <c r="B100" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="12">
+      <c r="C100" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="12">
+      <c r="D100" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="12">
+      <c r="E100" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="12">
+      <c r="F100" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="12">
+      <c r="G100" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="12">
+      <c r="H100" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="12">
+      <c r="I100" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3313,10 +3331,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="12" t="s">
+      <c r="J108" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="12" t="s">
+      <c r="K108" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3360,28 +3378,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="12">
+      <c r="A110" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="12">
+      <c r="C110" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="12">
+      <c r="D110" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3406,28 +3424,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="12">
+      <c r="C112" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="12">
+      <c r="D112" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="12">
+      <c r="E112" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="12">
+      <c r="F112" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="12">
+      <c r="G112" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="12">
+      <c r="H112" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="12">
+      <c r="I112" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3747,10 +3765,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="12" t="s">
+      <c r="J123" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="12" t="s">
+      <c r="K123" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3794,28 +3812,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="12">
+      <c r="A125" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="12">
+      <c r="B125" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="12">
+      <c r="C125" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="12">
+      <c r="D125" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="12">
+      <c r="E125" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="12">
+      <c r="F125" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="12">
+      <c r="G125" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="12">
+      <c r="H125" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3840,28 +3858,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="12">
+      <c r="B127" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="12">
+      <c r="C127" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="12">
+      <c r="D127" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="12">
+      <c r="E127" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="12">
+      <c r="F127" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="12">
+      <c r="G127" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="12">
+      <c r="H127" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="12">
+      <c r="I127" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4094,10 +4112,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="12" t="s">
+      <c r="J135" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="12" t="s">
+      <c r="K135" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4141,28 +4159,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="12">
+      <c r="A137" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="12">
+      <c r="B137" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="12">
+      <c r="C137" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="12">
+      <c r="D137" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="12">
+      <c r="E137" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="12">
+      <c r="F137" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="12">
+      <c r="G137" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="12">
+      <c r="H137" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4187,28 +4205,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="12">
+      <c r="B139" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="12">
+      <c r="C139" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="12">
+      <c r="D139" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="12">
+      <c r="E139" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="12">
+      <c r="F139" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="12">
+      <c r="G139" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="12">
+      <c r="H139" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="12">
+      <c r="I139" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4441,10 +4459,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="12" t="s">
+      <c r="J147" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="12" t="s">
+      <c r="K147" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4488,28 +4506,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="12">
+      <c r="A149" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="12">
+      <c r="B149" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="12">
+      <c r="C149" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D149" t="s" s="12">
+      <c r="D149" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="12">
+      <c r="E149" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="12">
+      <c r="F149" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="12">
+      <c r="G149" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="12">
+      <c r="H149" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4534,28 +4552,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="12">
+      <c r="B151" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="12">
+      <c r="C151" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="12">
+      <c r="D151" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="12">
+      <c r="E151" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="12">
+      <c r="F151" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="12">
+      <c r="G151" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="12">
+      <c r="H151" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="12">
+      <c r="I151" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4730,10 +4748,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="12" t="s">
+      <c r="J157" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="12" t="s">
+      <c r="K157" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4777,28 +4795,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="12">
+      <c r="A159" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="12">
+      <c r="B159" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="12">
+      <c r="C159" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="12">
+      <c r="D159" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="12">
+      <c r="E159" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="12">
+      <c r="F159" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="12">
+      <c r="G159" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="12">
+      <c r="H159" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4823,28 +4841,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="12">
+      <c r="B161" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="12">
+      <c r="C161" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="12">
+      <c r="D161" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="12">
+      <c r="E161" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="12">
+      <c r="F161" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="12">
+      <c r="G161" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="12">
+      <c r="H161" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="12">
+      <c r="I161" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4990,10 +5008,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="12" t="s">
+      <c r="J166" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="12" t="s">
+      <c r="K166" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -5037,28 +5055,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="12">
+      <c r="A168" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="12">
+      <c r="C168" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="12">
+      <c r="D168" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5083,28 +5101,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="12">
+      <c r="I170" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5192,10 +5210,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="12" t="s">
+      <c r="J173" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K173" s="12" t="s">
+      <c r="K173" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5239,28 +5257,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="12">
+      <c r="A175" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="12">
+      <c r="B175" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="12">
+      <c r="C175" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D175" t="s" s="12">
+      <c r="D175" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="12">
+      <c r="E175" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="12">
+      <c r="F175" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="12">
+      <c r="G175" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="12">
+      <c r="H175" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5285,28 +5303,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="12">
+      <c r="B177" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="12">
+      <c r="C177" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="12">
+      <c r="D177" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="12">
+      <c r="E177" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="12">
+      <c r="F177" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="12">
+      <c r="G177" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="12">
+      <c r="H177" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="12">
+      <c r="I177" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5365,10 +5383,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="12" t="s">
+      <c r="J179" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="12" t="s">
+      <c r="K179" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5412,28 +5430,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="12">
+      <c r="A181" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="12">
+      <c r="B181" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="12">
+      <c r="C181" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="12">
+      <c r="D181" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="12">
+      <c r="E181" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="12">
+      <c r="F181" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="12">
+      <c r="G181" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="12">
+      <c r="H181" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5458,28 +5476,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="12">
+      <c r="B183" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="12">
+      <c r="C183" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="12">
+      <c r="D183" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="12">
+      <c r="E183" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="12">
+      <c r="F183" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="12">
+      <c r="G183" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="12">
+      <c r="H183" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="12">
+      <c r="I183" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5567,10 +5585,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="12" t="s">
+      <c r="J186" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="12" t="s">
+      <c r="K186" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
